--- a/Manual1809_ZB02_VD_GD1/Manual1809_ZEBA_BD1/TestData_Manual1809_ZB02_VD_GD1.xlsx
+++ b/Manual1809_ZB02_VD_GD1/Manual1809_ZEBA_BD1/TestData_Manual1809_ZB02_VD_GD1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation Testing\Manual1809_ZB02_VD_GD1\Manual1809_ZEBA_BD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A13A0-9367-4D8E-9398-FE712525D194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3BE78C-10F8-4852-8514-F384CA34BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="3090" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="3105" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>varUsername</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>HCM</t>
+  </si>
+  <si>
+    <t>varPostalCode</t>
+  </si>
+  <si>
+    <t>varCity</t>
+  </si>
+  <si>
+    <t>DaNang</t>
+  </si>
+  <si>
+    <t>varRegion</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -517,10 +532,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527249FC-B78B-4125-B1DE-41ED95675BB9}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,9 +547,11 @@
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -559,8 +576,17 @@
       <c r="H1" t="s">
         <v>26</v>
       </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -584,6 +610,15 @@
       </c>
       <c r="H2" t="s">
         <v>27</v>
+      </c>
+      <c r="I2">
+        <v>70000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
